--- a/bin/mia-result/05_Data_4/Data_4_results.xlsx
+++ b/bin/mia-result/05_Data_4/Data_4_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7361bdf95a53a600/Dokumente/Nic_Stuff/GitHub/MIALab_project/bin/mia-result/05_Data_4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/634d2c18404eb9fd/Dokumente/GitHub/MIALab_project/bin/mia-result/05_Data_4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{4AD40CA1-B9E7-4E35-BA92-6E00C06B0848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84404EF0-53E2-4F73-91FD-DFBAC3122696}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{4AD40CA1-B9E7-4E35-BA92-6E00C06B0848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A599BFAA-BF9C-4BB3-A5F3-1431DA214CBE}"/>
   <bookViews>
-    <workbookView xWindow="5835" yWindow="1230" windowWidth="14850" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9015" yWindow="-21720" windowWidth="38640" windowHeight="20625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
@@ -960,13 +960,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14:U14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A2">
         <v>100307</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>0.83969529967913303</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A3">
         <v>100307</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>0.85192660063201997</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A4">
         <v>100307</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>0.83629609872432498</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A5">
         <v>100307</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>0.84668516711393005</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A6">
         <v>100307</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>0.84810065327849005</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>0.83314303198177098</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>0.85502352730491005</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>0.81434564036017498</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>0.85317794901497801</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>0.84190329565698097</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A12">
         <v>101107</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>5.9767238646108547</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A13">
         <v>101107</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>0.84202972637467133</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A14">
         <v>101107</v>
       </c>
@@ -1840,8 +1840,48 @@
         <f xml:space="preserve"> AVERAGE(C5,C15,C25,C35,C45,C55,C65,C75,C85,C95,C105)</f>
         <v>0.7462506663931342</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <f>_xlfn.STDEV.S(L2:L11)</f>
+        <v>2.8589812083834043E-2</v>
+      </c>
+      <c r="M14">
+        <f t="shared" ref="M14:U14" si="1">_xlfn.STDEV.S(M2:M11)</f>
+        <v>2.7943073057822836E-2</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="1"/>
+        <v>8.5875765824202782E-3</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="1"/>
+        <v>1.1629578259907923E-2</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="1"/>
+        <v>3.4261095725035363E-2</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>4.680296385898261E-2</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="1"/>
+        <v>1.8189336323711967E-2</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="1"/>
+        <v>1.9417716134823706E-2</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="1"/>
+        <v>1.6389445687251699E-2</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="1"/>
+        <v>1.2171556584072107E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A15">
         <v>101107</v>
       </c>
@@ -1872,7 +1912,7 @@
         <v>1.8189336323711967E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A16">
         <v>101107</v>
       </c>
@@ -1899,7 +1939,7 @@
         <v>5.8190697562424809</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1926,7 +1966,7 @@
         <v>1.5770673106131048</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1957,7 +1997,7 @@
         <v>0.82815075574911767</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1988,7 +2028,7 @@
         <v>1.6389445687251699E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -2015,7 +2055,7 @@
         <v>2.3166460687527679</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -2042,7 +2082,7 @@
         <v>0.191922994199764</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A22">
         <v>101915</v>
       </c>
@@ -2056,7 +2096,7 @@
         <v>11.704699910719601</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A23">
         <v>101915</v>
       </c>
@@ -2070,7 +2110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A24">
         <v>101915</v>
       </c>
@@ -2084,7 +2124,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A25">
         <v>101915</v>
       </c>
@@ -2098,7 +2138,7 @@
         <v>15.6524758424985</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A26">
         <v>101915</v>
       </c>
@@ -2112,7 +2152,7 @@
         <v>2.4494897427831699</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -2126,7 +2166,7 @@
         <v>3.6055512754639798</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -2140,7 +2180,7 @@
         <v>3.3166247903553998</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -2154,7 +2194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -2168,7 +2208,7 @@
         <v>9.0553851381374102</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -2182,7 +2222,7 @@
         <v>2.4494897427831699</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A32">
         <v>103414</v>
       </c>
@@ -2196,7 +2236,7 @@
         <v>11.704699910719601</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A33">
         <v>103414</v>
       </c>
@@ -2210,7 +2250,7 @@
         <v>2.4494897427831699</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A34">
         <v>103414</v>
       </c>
@@ -2224,7 +2264,7 @@
         <v>13.490737563232001</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A35">
         <v>103414</v>
       </c>
@@ -2238,7 +2278,7 @@
         <v>14.9666295470957</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A36">
         <v>103414</v>
       </c>
@@ -2252,7 +2292,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -2266,7 +2306,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
         <v>12</v>
       </c>
@@ -2280,7 +2320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -2294,7 +2334,7 @@
         <v>4.2426406871192803</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
         <v>12</v>
       </c>
@@ -2308,7 +2348,7 @@
         <v>4.2426406871192803</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -2322,7 +2362,7 @@
         <v>2.2360679774997898</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A42">
         <v>105014</v>
       </c>
@@ -2336,7 +2376,7 @@
         <v>9.6953597148326498</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A43">
         <v>105014</v>
       </c>
@@ -2350,7 +2390,7 @@
         <v>2.2360679774997898</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A44">
         <v>105014</v>
       </c>
@@ -2364,7 +2404,7 @@
         <v>12.845232578665099</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A45">
         <v>105014</v>
       </c>
@@ -2378,7 +2418,7 @@
         <v>15.779733838059499</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A46">
         <v>105014</v>
       </c>
@@ -2392,7 +2432,7 @@
         <v>2.2360679774997898</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -2406,7 +2446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -2420,7 +2460,7 @@
         <v>3.4641016151377499</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -2434,7 +2474,7 @@
         <v>5.4772255750516603</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -2448,7 +2488,7 @@
         <v>4.4721359549995796</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -2462,7 +2502,7 @@
         <v>2.2360679774997898</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A52">
         <v>106016</v>
       </c>
@@ -2476,7 +2516,7 @@
         <v>8.4852813742385695</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A53">
         <v>106016</v>
       </c>
@@ -2490,7 +2530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A54">
         <v>106016</v>
       </c>
@@ -2504,7 +2544,7 @@
         <v>13.4164078649987</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A55">
         <v>106016</v>
       </c>
@@ -2518,7 +2558,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A56">
         <v>106016</v>
       </c>
@@ -2532,7 +2572,7 @@
         <v>2.2360679774997898</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A57" t="s">
         <v>14</v>
       </c>
@@ -2546,7 +2586,7 @@
         <v>6.0827625302982096</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -2560,7 +2600,7 @@
         <v>3.1622776601683702</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A59" t="s">
         <v>14</v>
       </c>
@@ -2574,7 +2614,7 @@
         <v>6.4031242374328396</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A60" t="s">
         <v>14</v>
       </c>
@@ -2588,7 +2628,7 @@
         <v>5.9160797830996099</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A61" t="s">
         <v>14</v>
       </c>
@@ -2602,7 +2642,7 @@
         <v>2.2360679774997898</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A62">
         <v>110411</v>
       </c>
@@ -2616,7 +2656,7 @@
         <v>11.180339887498899</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A63">
         <v>110411</v>
       </c>
@@ -2630,7 +2670,7 @@
         <v>2.2360679774997898</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A64">
         <v>110411</v>
       </c>
@@ -2644,7 +2684,7 @@
         <v>15.620499351813301</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A65">
         <v>110411</v>
       </c>
@@ -2658,7 +2698,7 @@
         <v>15.2970585407783</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A66">
         <v>110411</v>
       </c>
@@ -2672,7 +2712,7 @@
         <v>2.2360679774997898</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A67" t="s">
         <v>15</v>
       </c>
@@ -2686,7 +2726,7 @@
         <v>6.6332495807107996</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A68" t="s">
         <v>15</v>
       </c>
@@ -2700,7 +2740,7 @@
         <v>4.4721359549995796</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A69" t="s">
         <v>15</v>
       </c>
@@ -2714,7 +2754,7 @@
         <v>10.099504938361999</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A70" t="s">
         <v>15</v>
       </c>
@@ -2728,7 +2768,7 @@
         <v>6.4031242374328396</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A71" t="s">
         <v>15</v>
       </c>
@@ -2742,7 +2782,7 @@
         <v>2.2360679774997898</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A72">
         <v>111716</v>
       </c>
@@ -2756,7 +2796,7 @@
         <v>13.1529464379659</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A73">
         <v>111716</v>
       </c>
@@ -2770,7 +2810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A74">
         <v>111716</v>
       </c>
@@ -2784,7 +2824,7 @@
         <v>15.1327459504215</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A75">
         <v>111716</v>
       </c>
@@ -2798,7 +2838,7 @@
         <v>13.379088160259601</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A76">
         <v>111716</v>
       </c>
@@ -2812,7 +2852,7 @@
         <v>2.4494897427831699</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A77" t="s">
         <v>16</v>
       </c>
@@ -2826,7 +2866,7 @@
         <v>3.1622776601683702</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A78" t="s">
         <v>16</v>
       </c>
@@ -2840,7 +2880,7 @@
         <v>5.0990195135927801</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A79" t="s">
         <v>16</v>
       </c>
@@ -2854,7 +2894,7 @@
         <v>4.6904157598234297</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A80" t="s">
         <v>16</v>
       </c>
@@ -2868,7 +2908,7 @@
         <v>4.1231056256176597</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A81" t="s">
         <v>16</v>
       </c>
@@ -2882,7 +2922,7 @@
         <v>2.2360679774997898</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A82">
         <v>113922</v>
       </c>
@@ -2896,7 +2936,7 @@
         <v>10.3440804327886</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A83">
         <v>113922</v>
       </c>
@@ -2910,7 +2950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A84">
         <v>113922</v>
       </c>
@@ -2924,7 +2964,7 @@
         <v>12.0415945787922</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A85">
         <v>113922</v>
       </c>
@@ -2938,7 +2978,7 @@
         <v>16.309506430300001</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A86">
         <v>113922</v>
       </c>
@@ -2952,7 +2992,7 @@
         <v>2.2360679774997898</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A87" t="s">
         <v>17</v>
       </c>
@@ -2966,7 +3006,7 @@
         <v>6.4031242374328396</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A88" t="s">
         <v>17</v>
       </c>
@@ -2980,7 +3020,7 @@
         <v>3.6055512754639798</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A89" t="s">
         <v>17</v>
       </c>
@@ -2994,7 +3034,7 @@
         <v>4.8989794855663504</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A90" t="s">
         <v>17</v>
       </c>
@@ -3008,7 +3048,7 @@
         <v>5.0990195135927801</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A91" t="s">
         <v>17</v>
       </c>
@@ -3022,7 +3062,7 @@
         <v>2.2360679774997898</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A92">
         <v>115320</v>
       </c>
@@ -3036,7 +3076,7 @@
         <v>12.0830459735945</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A93">
         <v>115320</v>
       </c>
@@ -3050,7 +3090,7 @@
         <v>2.2360679774997898</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A94">
         <v>115320</v>
       </c>
@@ -3064,7 +3104,7 @@
         <v>16.309506430300001</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A95">
         <v>115320</v>
       </c>
@@ -3078,7 +3118,7 @@
         <v>16.031219541881399</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A96">
         <v>115320</v>
       </c>
@@ -3092,7 +3132,7 @@
         <v>2.4494897427831699</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A97" t="s">
         <v>18</v>
       </c>
@@ -3106,7 +3146,7 @@
         <v>7.2111025509279703</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A98" t="s">
         <v>18</v>
       </c>
@@ -3120,7 +3160,7 @@
         <v>3.1622776601683702</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A99" t="s">
         <v>18</v>
       </c>
@@ -3134,7 +3174,7 @@
         <v>4.1231056256176597</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A100" t="s">
         <v>18</v>
       </c>
@@ -3148,7 +3188,7 @@
         <v>6.1644140029689698</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A101" t="s">
         <v>18</v>
       </c>
